--- a/3d-modified/runs/press-distributed-sm.xlsx
+++ b/3d-modified/runs/press-distributed-sm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-modified\runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C789642A-4FD7-4CDD-A1BE-C6F8491B6C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE6516-06C7-452C-8796-ECBD272424FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>31</v>
